--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/1000VECES/mean/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/1000VECES/mean/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Image Name</t>
   </si>
@@ -50,16 +50,19 @@
     <t>Local Size</t>
   </si>
   <si>
+    <t>[(4, 32)]</t>
+  </si>
+  <si>
     <t>[(2, 64)]</t>
   </si>
   <si>
+    <t>[(8, 8)]</t>
+  </si>
+  <si>
     <t>[(1, 128)]</t>
   </si>
   <si>
-    <t>[(4, 32)]</t>
-  </si>
-  <si>
-    <t>[(8, 8)]</t>
+    <t>[(8, 16)]</t>
   </si>
 </sst>
 </file>
@@ -524,37 +527,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>9.000539779663085E-06</v>
+        <v>1.199769973754883E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>6.004810333251953E-06</v>
+        <v>6.999969482421875E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>4.99868392944336E-06</v>
+        <v>6.998777389526367E-06</v>
       </c>
       <c r="E4" s="1">
-        <v>7.055759429931641E-06</v>
+        <v>6.999969482421875E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>6.999969482421875E-06</v>
+        <v>9.999752044677734E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>4.998207092285156E-06</v>
+        <v>5.998849868774414E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>5.999565124511719E-06</v>
+        <v>1.099586486816406E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>6.137609481811523E-06</v>
+        <v>5.998611450195313E-06</v>
       </c>
       <c r="J4" s="1">
-        <v>5.998373031616211E-06</v>
+        <v>8.999109268188476E-06</v>
       </c>
       <c r="K4" s="1">
-        <v>4.999876022338867E-06</v>
+        <v>7.999181747436524E-06</v>
       </c>
       <c r="L4" s="1">
-        <v>6.994485855102539E-06</v>
+        <v>8.998632431030274E-06</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -562,43 +565,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>1.905250549316406E-05</v>
+        <v>1.999974250793457E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>8.999824523925781E-06</v>
+        <v>8.999347686767579E-06</v>
       </c>
       <c r="D5" s="1">
-        <v>5.997657775878906E-06</v>
+        <v>1.099944114685059E-05</v>
       </c>
       <c r="E5" s="1">
-        <v>6.997823715209961E-06</v>
+        <v>6.99925422668457E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>9.000062942504883E-06</v>
+        <v>8.99648666381836E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>5.05375862121582E-06</v>
+        <v>5.998849868774414E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>1.007747650146484E-05</v>
+        <v>9.998321533203125E-06</v>
       </c>
       <c r="I5" s="1">
-        <v>6.058216094970703E-06</v>
+        <v>5.998611450195313E-06</v>
       </c>
       <c r="J5" s="1">
-        <v>1.006150245666504E-05</v>
+        <v>9.998559951782226E-06</v>
       </c>
       <c r="K5" s="1">
-        <v>5.99813461303711E-06</v>
+        <v>6.999015808105469E-06</v>
       </c>
       <c r="L5" s="1">
-        <v>6.999969482421875E-06</v>
+        <v>9.998559951782226E-06</v>
       </c>
       <c r="M5" s="1">
-        <v>4.998207092285156E-06</v>
+        <v>7.999181747436524E-06</v>
       </c>
       <c r="N5" s="1">
-        <v>9.07444953918457E-06</v>
+        <v>9.998559951782226E-06</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -606,37 +609,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0002500405311584473</v>
+        <v>0.0002520275115966797</v>
       </c>
       <c r="C6" s="1">
-        <v>6.511569023132324E-05</v>
+        <v>6.399869918823242E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>2.305436134338379E-05</v>
+        <v>2.299904823303223E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>2.305746078491211E-05</v>
+        <v>2.299928665161133E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>4.104828834533692E-05</v>
+        <v>4.199910163879395E-05</v>
       </c>
       <c r="G6" s="1">
-        <v>9.998798370361329E-06</v>
+        <v>1.099896430969238E-05</v>
       </c>
       <c r="I6" s="1">
         <v>1.399779319763184E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>8.216142654418946E-05</v>
+        <v>7.934689521789551E-05</v>
       </c>
       <c r="K6" s="1">
-        <v>2.40476131439209E-05</v>
+        <v>2.299880981445312E-05</v>
       </c>
       <c r="L6" s="1">
-        <v>4.405760765075684E-05</v>
+        <v>4.299855232238769E-05</v>
       </c>
       <c r="M6" s="1">
-        <v>9.997367858886719E-06</v>
+        <v>1.299977302551269E-05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -644,22 +647,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0003606789112091065</v>
+        <v>0.0003490006923675537</v>
       </c>
       <c r="C7" s="1">
-        <v>9.720444679260254E-05</v>
+        <v>9.49997901916504E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>2.805471420288086E-05</v>
+        <v>2.900028228759766E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>1.907753944396973E-05</v>
+        <v>1.900005340576172E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>1.40531063079834E-05</v>
+        <v>1.599860191345215E-05</v>
       </c>
       <c r="K7" s="1">
-        <v>1.799988746643066E-05</v>
+        <v>1.999902725219727E-05</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,34 +670,34 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0006790137290954589</v>
+        <v>0.0006674065589904785</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000182715892791748</v>
+        <v>0.0001829984188079834</v>
       </c>
       <c r="D8" s="1">
-        <v>5.404019355773926E-05</v>
+        <v>5.100154876708984E-05</v>
       </c>
       <c r="E8" s="1">
-        <v>3.455948829650879E-05</v>
+        <v>3.653383255004883E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>6.416034698486328E-05</v>
+        <v>6.299734115600586E-05</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0001173825263977051</v>
+        <v>0.0001180758476257324</v>
       </c>
       <c r="J8" s="1">
-        <v>0.0001162266731262207</v>
+        <v>0.0001139998435974121</v>
       </c>
       <c r="K8" s="1">
-        <v>3.608798980712891E-05</v>
+        <v>3.699970245361328E-05</v>
       </c>
       <c r="L8" s="1">
-        <v>6.417322158813476E-05</v>
+        <v>6.499624252319335E-05</v>
       </c>
       <c r="N8" s="1">
-        <v>0.0001311614513397217</v>
+        <v>0.0001309986114501953</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -702,28 +705,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001516102313995361</v>
+        <v>0.001559280633926392</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0004066200256347656</v>
+        <v>0.0004180200099945069</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0001292333602905273</v>
+        <v>0.0001329984664916992</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0001191966533660889</v>
+        <v>0.0001254880428314209</v>
       </c>
       <c r="G9" s="1">
-        <v>4.607009887695312E-05</v>
+        <v>4.600000381469726E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>6.919622421264649E-05</v>
+        <v>6.699728965759277E-05</v>
       </c>
       <c r="K9" s="1">
-        <v>0.0001262898445129394</v>
+        <v>0.0001259992122650147</v>
       </c>
       <c r="M9" s="1">
-        <v>4.509139060974121E-05</v>
+        <v>4.399895668029785E-05</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -731,34 +734,34 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.006147760391235352</v>
+        <v>0.006240958929061889</v>
       </c>
       <c r="C10" s="1">
-        <v>0.001667585134506226</v>
+        <v>0.001710000038146973</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0004690988063812256</v>
+        <v>0.0004739995002746582</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0002790055274963379</v>
+        <v>0.0002820003032684326</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0004978795051574707</v>
+        <v>0.0004980003833770752</v>
       </c>
       <c r="H10" s="1">
-        <v>0.00102938723564148</v>
+        <v>0.0009809999465942383</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0009744169712066651</v>
+        <v>0.0009269998073577881</v>
       </c>
       <c r="K10" s="1">
-        <v>0.0002837204933166504</v>
+        <v>0.0002739996910095215</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0005235896110534668</v>
+        <v>0.0004959998130798339</v>
       </c>
       <c r="N10" s="1">
-        <v>0.001137237071990967</v>
+        <v>0.001084000110626221</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,31 +769,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.03663668036460876</v>
+        <v>0.03633223891258239</v>
       </c>
       <c r="C11" s="1">
-        <v>0.009738390445709228</v>
+        <v>0.009386114358901977</v>
       </c>
       <c r="D11" s="1">
-        <v>0.002756928205490112</v>
+        <v>0.002717202186584473</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001945301055908203</v>
+        <v>0.001884005069732666</v>
       </c>
       <c r="F11" s="1">
-        <v>0.003646046876907349</v>
+        <v>0.003498022556304932</v>
       </c>
       <c r="G11" s="1">
-        <v>0.001029020071029663</v>
+        <v>0.0009819993972778321</v>
       </c>
       <c r="I11" s="1">
-        <v>0.001163289546966553</v>
+        <v>0.00111299991607666</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001900891065597534</v>
+        <v>0.001814011573791504</v>
       </c>
       <c r="L11" s="1">
-        <v>0.003686585426330566</v>
+        <v>0.003510000228881836</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>4.998207092285156E-06</v>
+        <v>5.998611450195313E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -842,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>4.998207092285156E-06</v>
+        <v>5.998611450195313E-06</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -856,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>9.997367858886719E-06</v>
+        <v>1.099896430969238E-05</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -870,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>1.40531063079834E-05</v>
+        <v>1.599860191345215E-05</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -884,10 +887,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3.455948829650879E-05</v>
+        <v>3.653383255004883E-05</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -898,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>4.509139060974121E-05</v>
+        <v>4.399895668029785E-05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -912,10 +915,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0002790055274963379</v>
+        <v>0.0002739996910095215</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -926,10 +929,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>0.001029020071029663</v>
+        <v>0.0009819993972778321</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
